--- a/Winston_Agent_Portal/AgentPortal.xlsx
+++ b/Winston_Agent_Portal/AgentPortal.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CAD81B-37D1-46EB-A464-43FB68135582}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0306F400-FE0A-4A90-B21B-BBC1A843D3E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{8A860396-11AD-4604-9097-B01BF94748E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8A860396-11AD-4604-9097-B01BF94748E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -403,7 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6BAA68-1AA7-4989-B709-3C4ABB2DBB5B}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -464,12 +464,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3004AF-8AC6-4FEC-898D-15455D77C1AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D696CA1-F2DA-467B-9E26-2E5FDF86F730}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
